--- a/mpct_about_us.xlsx
+++ b/mpct_about_us.xlsx
@@ -1,25 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prashantkumarxft/Desktop/RailsProject/learning/PeetambaraKinkar/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17688796-D2CD-8B4D-858B-9EB684A5ED3E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="6700" yWindow="1840" windowWidth="26840" windowHeight="15940" activeTab="2" xr2:uid="{FC6CFDD4-07DD-D749-BCE6-EE267D50F675}"/>
+    <workbookView xWindow="6705" yWindow="1845" windowWidth="21840" windowHeight="13740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CURRENT COMMITTEE" sheetId="1" r:id="rId1"/>
     <sheet name="SUB COMMITTEE" sheetId="2" r:id="rId2"/>
     <sheet name="MEMBERS" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -92,12 +86,18 @@
   </si>
   <si>
     <t>pankaj-mishra@gmail.com</t>
+  </si>
+  <si>
+    <t>sandeep gupta</t>
+  </si>
+  <si>
+    <t>itwan bodhgaya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -216,7 +216,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -268,7 +268,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -462,28 +462,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34215123-B862-BF4A-B7A2-31B65718E18C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24">
+    <row r="1" spans="1:3" ht="23.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,29 +518,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{01586327-FA24-AE45-8D4C-56CFA7228E4C}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{4F6A666A-0A71-6D4F-B86D-07DE75830B14}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D086B12-AC4E-4143-A8B9-9610CD6ED5F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1"/>
-    <col min="3" max="3" width="62.6640625" customWidth="1"/>
+    <col min="1" max="1" width="47.625" customWidth="1"/>
+    <col min="2" max="2" width="37.625" customWidth="1"/>
+    <col min="3" max="3" width="62.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24">
+    <row r="1" spans="1:3" ht="23.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,29 +575,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{6BA224E8-BF3D-E24B-BDA1-12C3D212A87F}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{D24AAE19-E8F5-DB45-8332-DA3154455341}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A61DAA4-BDCE-D24B-B72C-48E3707B285F}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="33.83203125" customWidth="1"/>
+    <col min="1" max="1" width="33.875" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24">
+    <row r="1" spans="1:3" ht="23.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,10 +630,18 @@
         <v>19</v>
       </c>
     </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{F8A3D585-9244-F54E-8F2C-A6C1EDA2BC8B}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{D87E3D41-0E3F-144E-AE90-1F086D420B36}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
